--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,60 +437,96 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.63668011438422</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.36636038661274</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.042884936845275</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.170715555161617</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3545509457046398</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.1959606513534617</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.14632732580582</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.7370249238913222</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.09653254373334705</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.08094923444374726</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.2083783287053444</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.1352289301503601</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.3412560005081211</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.2290382506391178</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0.1016149879557753</v>
       </c>
+      <c r="B9" t="n">
+        <v>0.02609084844795538</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.006574752566973041</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.03935622243898602</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>0.01789180138249652</v>
       </c>
+      <c r="B11" t="n">
+        <v>0.001874031833065366</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>0.04903091836860865</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05057656493292192</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.36636038661274</v>
       </c>
+      <c r="C2" t="n">
+        <v>-5.04614857794682</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.170715555161617</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.194025718115943</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.1959606513534617</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.07161795042852842</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.7370249238913222</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.4111325302719243</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.08094923444374726</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.0159267162195228</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>0.1352289301503601</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.1002874912444511</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>0.2290382506391178</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.1290666877551792</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>0.02609084844795538</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.0276633633304105</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.03935622243898602</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.03180697780879011</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>0.001874031833065366</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.005376147938177376</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -527,6 +560,9 @@
       </c>
       <c r="B12" t="n">
         <v>0.05057656493292192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03799774138790459</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -452,7 +452,7 @@
         <v>-5.36636038661274</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.04614857794682</v>
+        <v>-5.028042793650829</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.170715555161617</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.194025718115943</v>
+        <v>-1.189874591947448</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.1959606513534617</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07161795042852842</v>
+        <v>-0.0615282423017409</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.7370249238913222</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4111325302719243</v>
+        <v>-0.4005760218502046</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>0.08094923444374726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0159267162195228</v>
+        <v>0.01500614343439477</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.1352289301503601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1002874912444511</v>
+        <v>0.09915277476007525</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>0.2290382506391178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1290666877551792</v>
+        <v>0.1276481233015081</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
         <v>0.02609084844795538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0276633633304105</v>
+        <v>0.02713608500475133</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +540,7 @@
         <v>0.03935622243898602</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03180697780879011</v>
+        <v>0.03198635883432693</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +551,7 @@
         <v>0.001874031833065366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005376147938177376</v>
+        <v>0.00527679405225358</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +562,7 @@
         <v>0.05057656493292192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03799774138790459</v>
+        <v>0.03738325939343457</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.36636038661274</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.028042793650829</v>
+        <v>-5.04614857794682</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.703688665936504</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.331628424984894</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.170715555161617</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.189874591947448</v>
+        <v>-1.194025718115943</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.184465726122439</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.155500225866388</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.1959606513534617</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0615282423017409</v>
+        <v>-0.07161795042852842</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02172012643327927</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0937874122571985</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.7370249238913222</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4005760218502046</v>
+        <v>-0.4111325302719243</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1546895415091126</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04977305232093901</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>0.08094923444374726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01500614343439477</v>
+        <v>0.0159267162195228</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.04401287182054063</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.09861120752912411</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +543,13 @@
         <v>0.1352289301503601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09915277476007525</v>
+        <v>0.1002874912444511</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06273304633550032</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02643600938059715</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +560,13 @@
         <v>0.2290382506391178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1276481233015081</v>
+        <v>0.1290666877551792</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03477873499536071</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.05476414598822187</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +577,13 @@
         <v>0.02609084844795538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02713608500475133</v>
+        <v>0.0276633633304105</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0247399727427734</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02129074192242487</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +594,13 @@
         <v>0.03935622243898602</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03198635883432693</v>
+        <v>0.03180697780879011</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02298403018683341</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01644016522890406</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +611,13 @@
         <v>0.001874031833065366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00527679405225358</v>
+        <v>0.005376147938177376</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.008014114575528983</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01023167260238377</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +628,13 @@
         <v>0.05057656493292192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03738325939343457</v>
+        <v>0.03799774138790459</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02684937632215087</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01689879936321448</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-4.331628424984894</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.941025634230914</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.155500225866388</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.110901084697632</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.0937874122571985</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1463415553007076</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>0.04977305232093901</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2084763994097863</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>-0.09861120752912411</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1475130327463479</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>0.02643600938059715</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.007522827420020197</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.05476414598822187</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1370373973078768</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>0.02129074192242487</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01819538915525649</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.01644016522890406</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.01138765440551669</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>0.01023167260238377</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.01183930365404159</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -635,6 +668,9 @@
       </c>
       <c r="E12" t="n">
         <v>0.01689879936321448</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.008430298609811433</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-3.941025634230914</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.541942267031791</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.110901084697632</v>
       </c>
+      <c r="G3" t="n">
+        <v>-1.053897574428474</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1463415553007076</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1810805062733745</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.2084763994097863</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.3272812521630247</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>-0.1475130327463479</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.1901357573251465</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.007522827420020197</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.03858076718422371</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.1370373973078768</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2104519017366446</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>0.01819538915525649</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.0154528654246798</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.01138765440551669</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.007682723993655802</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>0.01183930365404159</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.012916442281468</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -671,6 +704,9 @@
       </c>
       <c r="F12" t="n">
         <v>0.008430298609811433</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.001309606227717015</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.541942267031791</v>
       </c>
+      <c r="H2" t="n">
+        <v>-3.143243459537966</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-1.053897574428474</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.9874937010665124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1810805062733745</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.1997769200329153</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.3272812521630247</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.4117157994802543</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>-0.1901357573251465</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.2261540915807875</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.03858076718422371</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.06632780802892567</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2104519017366446</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.2740280925080601</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>0.0154528654246798</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.01304482715497861</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.007682723993655802</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.005081037332695134</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>0.012916442281468</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.01352341555754044</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -707,6 +740,9 @@
       </c>
       <c r="G12" t="n">
         <v>0.001309606227717015</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.004553106153035516</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-3.143243459537966</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.752508870376639</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-0.9874937010665124</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.9145027798721658</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.1997769200329153</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2042610660917056</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.4117157994802543</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4669443841335106</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>-0.2261540915807875</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.2554621440316586</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.06632780802892567</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.09048526471244463</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.2740280925080601</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.3272890510134535</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>0.01304482715497861</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.01094564491803352</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.005081037332695134</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.003377656657489059</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>0.01352341555754044</v>
       </c>
+      <c r="I11" t="n">
+        <v>0.01372749763733387</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -743,6 +776,9 @@
       </c>
       <c r="H12" t="n">
         <v>-0.004553106153035516</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.009263262568011677</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.752508870376639</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.376042221729789</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.9145027798721658</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.8374744852432583</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2042610660917056</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.1963815146340501</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4669443841335106</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.4977493192386893</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>-0.2554621440316586</v>
       </c>
+      <c r="J6" t="n">
+        <v>-0.2781450729034834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.09048526471244463</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.1108933564146179</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.3272890510134535</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.3701722133792237</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>0.01094564491803352</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.009131041806833259</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.003377656657489059</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.002388265431438471</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>0.01372749763733387</v>
       </c>
+      <c r="J11" t="n">
+        <v>0.01359301195351712</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -779,6 +812,9 @@
       </c>
       <c r="I12" t="n">
         <v>-0.009263262568011677</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.01293052060398737</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.376042221729789</v>
       </c>
+      <c r="K2" t="n">
+        <v>-2.018908354819156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.8374744852432583</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.7586671506116364</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.1963815146340501</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.1779672163157474</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.4977493192386893</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.5085130908509651</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>-0.2781450729034834</v>
       </c>
+      <c r="K6" t="n">
+        <v>-0.2944494235297085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.1108933564146179</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.1275024074598834</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.3701722133792237</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.4029445721850228</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>0.009131041806833259</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.007576529274464369</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.002388265431438471</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.001952814509475006</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>0.01359301195351712</v>
       </c>
+      <c r="K11" t="n">
+        <v>0.01318088840055339</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -815,6 +848,9 @@
       </c>
       <c r="J12" t="n">
         <v>-0.01293052060398737</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.01566712354128526</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-2.018908354819156</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.685000463511195</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.7586671506116364</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6800322277674001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.1779672163157474</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1507911463299638</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.5085130908509651</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.503206325675386</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>-0.2944494235297085</v>
       </c>
+      <c r="L6" t="n">
+        <v>-0.3047556452310135</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.1275024074598834</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.1403648626836407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.4029445721850228</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.4261244579322228</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>0.007576529274464369</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.006257973450838362</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.001952814509475006</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.001933949951420398</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>0.01318088840055339</v>
       </c>
+      <c r="L11" t="n">
+        <v>0.01254753985177424</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -851,6 +884,9 @@
       </c>
       <c r="K12" t="n">
         <v>-0.01566712354128526</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.01758476454039021</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.685000463511195</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.377129835137015</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6800322277674001</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.6032110023343045</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1507911463299638</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.1165381227744821</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.503206325675386</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.4853823099794821</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>-0.3047556452310135</v>
       </c>
+      <c r="M6" t="n">
+        <v>-0.3095504170487107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.1403648626836407</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.1496254015342727</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.4261244579322228</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.4404124455292928</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>0.006257973450838362</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.005151909546969553</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.001933949951420398</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.002215630820743818</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>0.01254753985177424</v>
       </c>
+      <c r="M11" t="n">
+        <v>0.01174434123067951</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -887,6 +920,9 @@
       </c>
       <c r="L12" t="n">
         <v>-0.01758476454039021</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.0187922727654082</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.377129835137015</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.0971313311503</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.6032110023343045</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.5295416603185478</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.1165381227744821</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.07677853494285944</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.4853823099794821</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.4581788088906858</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>-0.3095504170487107</v>
       </c>
+      <c r="N6" t="n">
+        <v>-0.3093986092809512</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.1496254015342727</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.1555079089406121</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.4404124455292928</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.4466325134326634</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>0.005151909546969553</v>
       </c>
+      <c r="N9" t="n">
+        <v>0.004235836248366278</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.002215630820743818</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.002701324032774404</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>0.01174434123067951</v>
       </c>
+      <c r="N11" t="n">
+        <v>0.01081733039181631</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -923,6 +956,9 @@
       </c>
       <c r="M12" t="n">
         <v>-0.0187922727654082</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.01939375923956093</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.0971313311503</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.8459781767089031</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6239004981304624</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.5295416603185478</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4600749389529301</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3955961947093864</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.07677853494285944</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.03294888504521559</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.01366074436541153</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.4581788088906858</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.4243272129894631</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.386168490797377</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>-0.3093986092809512</v>
       </c>
+      <c r="O6" t="n">
+        <v>-0.3049156090296108</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2967412013963857</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.1555079089406121</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.1582994771796145</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1583326034851112</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.4466325134326634</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.4456834100645217</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4384993929038604</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>0.004235836248366278</v>
       </c>
+      <c r="O9" t="n">
+        <v>0.003488422063327317</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002889642554604474</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.002701324032774404</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.00331207567487453</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.003984540936773856</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>0.01081733039181631</v>
       </c>
+      <c r="O11" t="n">
+        <v>0.009807123805076088</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.008748989017541843</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -959,6 +1025,12 @@
       </c>
       <c r="N12" t="n">
         <v>-0.01939375923956093</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.01948723620516277</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01916363945168371</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.6239004981304624</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.4305030042089296</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.3955961947093864</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3366517193175029</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>-0.01366074436541153</v>
       </c>
+      <c r="Q4" t="n">
+        <v>-0.06191277741138458</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.386168490797377</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.3456749722624341</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>-0.2967412013963857</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-0.2855162009172611</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.1583326034851112</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.1559671402587198</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.4384993929038604</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.426019095040511</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>0.002889642554604474</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0.002420859589630781</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.003984540936773856</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.004669054733263209</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>0.008748989017541843</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0.007673035024117239</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1031,6 +1064,9 @@
       </c>
       <c r="P12" t="n">
         <v>-0.01916363945168371</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01850619574281804</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.4305030042089296</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2648781963193091</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3366517193175029</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.2835773360517846</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>-0.06191277741138458</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.1108226498843831</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.3456749722624341</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.3044767032730298</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>-0.2855162009172611</v>
       </c>
+      <c r="R6" t="n">
+        <v>-0.2718627428551579</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.1559671402587198</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.1515734753387078</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.426019095040511</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.4091611823006561</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>0.002420859589630781</v>
       </c>
+      <c r="R9" t="n">
+        <v>0.002064856238267162</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.004669054733263209</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.005327792924043535</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>0.007673035024117239</v>
       </c>
+      <c r="R11" t="n">
+        <v>0.006604487240065026</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1067,6 +1100,9 @@
       </c>
       <c r="Q12" t="n">
         <v>-0.01850619574281804</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.01759007870487164</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2648781963193091</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.1257124348148626</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.2835773360517846</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.2365276404830786</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.1108226498843831</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.15955478670864</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.3044767032730298</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.2638909939461649</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>-0.2718627428551579</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.2563687252306421</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.1515734753387078</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.1455180459039742</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.4091611823006561</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.3888055850531818</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>0.002064856238267162</v>
       </c>
+      <c r="S9" t="n">
+        <v>0.001805838840878749</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.005327792924043535</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.005933054928398699</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>0.006604487240065026</v>
       </c>
+      <c r="S11" t="n">
+        <v>0.005564021000215269</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1103,6 +1136,9 @@
       </c>
       <c r="R12" t="n">
         <v>-0.01759007870487164</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.01648230250276186</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.1257124348148626</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.01138304053016653</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.2365276404830786</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.1955046265123307</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.15955478670864</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.2074151443775752</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.2638909939461649</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.2249538106134928</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>-0.2563687252306421</v>
       </c>
+      <c r="T6" t="n">
+        <v>-0.2395764683382241</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.1455180459039742</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.138151803268323</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.3888055850531818</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.3657793096450506</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>0.001805838840878749</v>
       </c>
+      <c r="T9" t="n">
+        <v>0.00162941543875614</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.005933054928398699</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.006465684009507549</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>0.005564021000215269</v>
       </c>
+      <c r="T11" t="n">
+        <v>0.004568133097109608</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1139,6 +1172,9 @@
       </c>
       <c r="S12" t="n">
         <v>-0.01648230250276186</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.01524180848222853</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.01138304053016653</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.07995465666952832</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.1955046265123307</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.1603848026830086</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.2074151443775752</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.2538413420940597</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.2249538106134928</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.1884517938223925</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>-0.2395764683382241</v>
       </c>
+      <c r="U6" t="n">
+        <v>-0.2219753114660598</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.138151803268323</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.1298017855035408</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.3657793096450506</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.3408460653725819</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>0.00162941543875614</v>
       </c>
+      <c r="U9" t="n">
+        <v>0.001522557353669361</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.006465684009507549</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.006913632016225834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>0.004568133097109608</v>
       </c>
+      <c r="U11" t="n">
+        <v>0.003629535287222826</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1175,6 +1208,9 @@
       </c>
       <c r="T12" t="n">
         <v>-0.01524180848222853</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.01391970556410779</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>0.07995465666952832</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.1502908062527447</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.1603848026830086</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.1309442212006998</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.2538413420940597</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.2983912734165712</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.1884517938223925</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.1549538802053854</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>-0.2219753114660598</v>
       </c>
+      <c r="V6" t="n">
+        <v>-0.2039976340456529</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.1298017855035408</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.1207656008389501</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.3408460653725819</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.3146991309776829</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>0.001522557353669361</v>
       </c>
+      <c r="V9" t="n">
+        <v>0.001473548703271655</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.006913632016225834</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.007270669349862535</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>0.003629535287222826</v>
       </c>
+      <c r="V11" t="n">
+        <v>0.002757557019188116</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1211,6 +1244,9 @@
       </c>
       <c r="U12" t="n">
         <v>-0.01391970556410779</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.01255963014246553</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>0.1502908062527447</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.2016950703252412</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.1309442212006998</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.106881097915678</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.2983912734165712</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.3407309306582855</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.1549538802053854</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.1248417274664466</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>-0.2039976340456529</v>
       </c>
+      <c r="W6" t="n">
+        <v>-0.1860176726042086</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.1207656008389501</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.1113084043165641</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.3146991309776829</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.2879570115425306</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>0.001473548703271655</v>
       </c>
+      <c r="W9" t="n">
+        <v>0.001471927151941303</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.007270669349862535</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.007535237231881692</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>0.002757557019188116</v>
       </c>
+      <c r="W11" t="n">
+        <v>0.001958547159546107</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1247,6 +1280,9 @@
       </c>
       <c r="V12" t="n">
         <v>-0.01255963014246553</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.01119819558392179</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>0.2016950703252412</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.2362608531421116</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.106881097915678</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.08783589430573198</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.3407309306582855</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.3806220126062783</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.1248417274664466</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.09833836052731371</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>-0.1860176726042086</v>
       </c>
+      <c r="X6" t="n">
+        <v>-0.1683524859333084</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.1113084043165641</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.1016618532648655</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.2879570115425306</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.2611615079010544</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>0.001471927151941303</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.001508418202740106</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.007535237231881692</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.007709437056722288</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>0.001958547159546107</v>
       </c>
+      <c r="X11" t="n">
+        <v>0.001236266471572458</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1283,6 +1316,9 @@
       </c>
       <c r="W12" t="n">
         <v>-0.01119819558392179</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.009865505271806548</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>0.2362608531421116</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0.2560591265593472</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.08783589430573198</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.0734088687630733</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.3806220126062783</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.4179097382689691</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.09833836052731371</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.07553465436659872</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>-0.1683524859333084</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.1512644697493534</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.1016618532648655</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.09202452439858179</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.2611615079010544</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.2347778532462445</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>0.001508418202740106</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.001574864736300133</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.007709437056722288</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.007798150107469259</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>0.001236266471572458</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.0005922642492042686</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1319,6 +1352,9 @@
       </c>
       <c r="X12" t="n">
         <v>-0.009865505271806548</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.008585706632832117</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>0.2560591265593472</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0.2631010884164536</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.0734088687630733</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.06317519442972375</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.4179097382689691</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.452511163468156</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.07553465436659872</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.05641343530832692</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>-0.1512644697493534</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.1349649095713734</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.09202452439858179</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.08256333224940311</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.2347778532462445</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.2091965841118725</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>0.001574864736300133</v>
       </c>
+      <c r="Z9" t="n">
+        <v>0.001664153176120505</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.007798150107469259</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.007808279835525379</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>0.0005922642492042686</v>
       </c>
+      <c r="Z11" t="n">
+        <v>2.623395516533999e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1355,6 +1388,9 @@
       </c>
       <c r="Y12" t="n">
         <v>-0.008585706632832117</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.007377566837133274</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>0.2631010884164536</v>
       </c>
+      <c r="AA2" t="n">
+        <v>0.2593087999421512</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.06317519442972375</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.05669779535929892</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.452511163468156</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.4844041956850786</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.05641343530832692</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.04087111428892404</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>-0.1349649095713734</v>
       </c>
+      <c r="AA6" t="n">
+        <v>-0.1196181624775094</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.08256333224940311</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.0734155745074208</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.2091965841118725</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1847368201345625</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>0.001664153176120505</v>
       </c>
+      <c r="AA9" t="n">
+        <v>0.001770137496141187</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.007808279835525379</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.007748108091759135</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>2.623395516533999e-05</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.0004636559713723587</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1391,6 +1424,9 @@
       </c>
       <c r="Z12" t="n">
         <v>-0.007377566837133274</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.006255053933389418</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>0.2593087999421512</v>
       </c>
+      <c r="AB2" t="n">
+        <v>0.2464929130593744</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.05669779535929892</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.05353808185150403</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.4844041956850786</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.5136174245806165</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.04087111428892404</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.02873686436365395</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>-0.1196181624775094</v>
       </c>
+      <c r="AB6" t="n">
+        <v>-0.1053461578727199</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.0734155745074208</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.06469132191497749</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1847368201345625</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1616506380655421</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>0.001770137496141187</v>
       </c>
+      <c r="AB9" t="n">
+        <v>0.001887562199772446</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.007748108091759135</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.007626756092567704</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.0004636559713723587</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.0008804587657679276</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1427,6 +1460,9 @@
       </c>
       <c r="AA12" t="n">
         <v>-0.006255053933389418</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.00522791007963538</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>0.2464929130593744</v>
       </c>
+      <c r="AC2" t="n">
+        <v>0.2263366044347276</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.05353808185150403</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.05326477758578554</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.5136174245806165</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.5402208280321431</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.02873686436365395</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.01978942446866182</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>-0.1053461578727199</v>
       </c>
+      <c r="AC6" t="n">
+        <v>-0.09223299442721007</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.06469132191497749</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.05647595429313533</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1616506380655421</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1401282443020383</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>0.001887562199772446</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0.002011985332814816</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.007626756092567704</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.007453740510186552</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.0008804587657679276</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.001228174985502409</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1463,6 +1496,9 @@
       </c>
       <c r="AB12" t="n">
         <v>-0.00522791007963538</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.004302206235637825</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>0.2263366044347276</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0.2003848678866351</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.05326477758578554</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.05546103190642572</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.5402208280321431</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.5643173726018459</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.01978942446866182</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.01377165744558259</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>-0.09223299442721007</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-0.08032948058062578</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.05647595429313533</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.04883271295447084</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1401282443020383</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1203036769294195</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>0.002011985332814816</v>
       </c>
+      <c r="AD9" t="n">
+        <v>0.002139702514586484</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.007453740510186552</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.007238614905432404</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.001228174985502409</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.001511507735163892</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1499,6 +1532,9 @@
       </c>
       <c r="AC12" t="n">
         <v>-0.004302206235637825</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.003480870158624532</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>0.2003848678866351</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.1700383702133515</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.05546103190642572</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.05973000473635462</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.5643173726018459</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.5860354993097363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.01377165744558259</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.01040301789356746</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>-0.08032948058062578</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.06965751902873181</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.04883271295447084</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.04180519120030146</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1203036769294195</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1022608009825854</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>0.002139702514586484</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.002267672870378789</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.007238614905432404</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.006990686776679494</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.001511507735163892</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.001735647241116078</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1535,6 +1568,9 @@
       </c>
       <c r="AD12" t="n">
         <v>-0.003480870158624532</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.002764181755983407</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>0.1700383702133515</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.1365511397019643</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.05973000473635462</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.06569910211777838</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.5860354993097363</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.6055224670832178</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.01040301789356746</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.009390099375392483</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>-0.06965751902873181</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-0.06021427332414599</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.04180519120030146</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.03541972004842903</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1022608009825854</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.08603939661931626</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>0.002267672870378789</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.002393447624939513</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.006990686776679494</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.006718800767390585</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.001735647241116078</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.001906083896121858</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1571,6 +1604,9 @@
       </c>
       <c r="AE12" t="n">
         <v>-0.002764181755983407</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.002150231772302173</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>0.1365511397019643</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.1010314255989447</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.06569910211777838</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.07302302918668181</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.6055224670832178</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.6229385145440781</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.009390099375392483</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.01043543491800515</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>-0.06021427332414599</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-0.05197608011053494</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.03541972004842903</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.0296876286435681</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.08603939661931626</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.07164117646311509</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>0.002393447624939513</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.002515101978781096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.006718800767390585</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.006431179025695555</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.001906083896121858</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.002028448396834226</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1607,6 +1640,9 @@
       </c>
       <c r="AF12" t="n">
         <v>-0.002150231772302173</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.001635341415019912</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>0.1010314255989447</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.0644451364387144</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.07302302918668181</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.08138581560286115</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.6229385145440781</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.638451793748406</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.01043543491800515</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.01324472279417336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>-0.05197608011053494</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-0.04490208675758477</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.0296876286435681</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.02460737132362675</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.07164117646311509</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.05903560333186756</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>0.002515101978781096</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.002631170746586862</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.006431179025695555</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.006135310301935669</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.002028448396834226</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.002108377243558724</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1643,6 +1676,9 @@
       </c>
       <c r="AG12" t="n">
         <v>-0.001635341415019912</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.001214441859640788</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>0.0644451364387144</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.02762133251746138</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.08138581560286115</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.09050195668046518</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.638451793748406</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.6522340255558777</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.01324472279417336</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.01753264361931467</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>-0.04490208675758477</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-0.03893760415132274</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.02460737132362675</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.02016651922909439</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.05903560333186756</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.0481654113973459</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>0.002631170746586862</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.002740588099190081</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.006135310301935669</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.005837880058070217</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.002108377243558724</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.002151401644739593</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1679,6 +1712,9 @@
       </c>
       <c r="AH12" t="n">
         <v>-0.001214441859640788</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.0008814136415165963</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>0.02762133251746138</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.008740688759787748</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.09050195668046518</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.100116801986366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.6522340255558777</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.6644568243826482</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.01753264361931467</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.02302742652238723</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>-0.03893760415132274</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-0.0340171704456496</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.02016651922909439</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.01634361629312531</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.0481654113973459</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.03895176164522568</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>0.002740588099190081</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.002842631624646156</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.005837880058070217</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.005544734602240324</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.002151401644739593</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.002162857747311251</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1715,6 +1748,9 @@
       </c>
       <c r="AI12" t="n">
         <v>-0.0008814136415165963</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.0006293867653063913</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.008740688759787748</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.044063117344224</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.100116801986366</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.1100063121084812</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.6644568243826482</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.6752886394606817</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.02302742652238723</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.0294743126790529</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>-0.0340171704456496</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-0.03006732540415183</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.01634361629312531</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.01310989942175333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.03895176164522568</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.03129898599644432</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>0.002842631624646156</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.002936870814282042</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.005544734602240324</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.005260873014261761</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.002162857747311251</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.002147816076470827</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1751,6 +1784,9 @@
       </c>
       <c r="AJ12" t="n">
         <v>-0.0006293867653063913</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.0004510029790025702</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.044063117344224</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.07788051409713298</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.1100063121084812</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.1199762936698622</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.6752886394606817</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.6848922599248994</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.0294743126790529</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.03663805454575804</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>-0.03006732540415183</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-0.02700909769591488</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.01310989942175333</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.01043088201110196</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.03129898599644432</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.02509889368544002</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>0.002936870814282042</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.003023119988251832</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.005260873014261761</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.004990461363116614</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.002147816076470827</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.002111028093776616</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1787,6 +1820,9 @@
       </c>
       <c r="AK12" t="n">
         <v>-0.0004510029790025702</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.00033864210179467</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.07788051409713298</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.1098301544164501</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.1199762936698622</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.1298612124688233</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.6848922599248994</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.693422831801733</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.03663805454575804</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.04430457913121393</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>-0.02700909769591488</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.02476020982933897</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.01043088201110196</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.008267799450038313</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.02509889368544002</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.02023462881477954</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>0.003023119988251832</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.003101395601963508</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.004990461363116614</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.004736864414089527</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.002111028093776616</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.002056887852463638</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1823,6 +1856,9 @@
       </c>
       <c r="AL12" t="n">
         <v>-0.00033864210179467</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.0002846145974226713</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.1098301544164501</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.1396420894497724</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.1298612124688233</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.1395226748467768</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.693422831801733</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.7010263361202131</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.04430457913121393</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.05228193381904717</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>-0.02476020982933897</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-0.02323700764357801</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.008267799450038313</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.006578915300760893</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.02023462881477954</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.01658407991426685</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>0.003101395601963508</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.003171877818282093</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.004736864414089527</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.004502690667669632</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.002056887852463638</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.001989406828350411</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1859,6 +1892,9 @@
       </c>
       <c r="AM12" t="n">
         <v>-0.0002846145974226713</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.0002813227769739178</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.1396420894497724</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.1671291433494792</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.1395226748467768</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1488476580157429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.7010263361202131</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.7078384788253577</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.05228193381904717</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.06040062372321055</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>-0.02323700764357801</v>
       </c>
+      <c r="AO6" t="n">
+        <v>-0.02235612352742731</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.006578915300760893</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.005320687523868343</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.01658407991426685</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.01402285137674359</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>0.003171877818282093</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.003234876188367782</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.004502690667669632</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.004289847158170965</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.001989406828350411</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.001912200121951838</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1895,6 +1928,9 @@
       </c>
       <c r="AN12" t="n">
         <v>-0.0002813227769739178</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.0003213931227526057</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.1671291433494792</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.1921770299327444</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1488476580157429</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1577465611171825</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.7078384788253577</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.7139839448979259</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.06040062372321055</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.06851344035738423</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>-0.02235612352742731</v>
       </c>
+      <c r="AP6" t="n">
+        <v>-0.02203588476464186</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.005320687523868343</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.004448795327612087</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.01402285137674359</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.01242681336217623</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>0.003234876188367782</v>
       </c>
+      <c r="AP9" t="n">
+        <v>0.003290799253778401</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.004289847158170965</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.004099600965879056</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.001912200121951838</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.001828482353781786</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1931,6 +1964,9 @@
       </c>
       <c r="AO12" t="n">
         <v>-0.0003213931227526057</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.0003977822685586398</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP12"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.1921770299327444</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2147347405508076</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1577465611171825</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1661511402432634</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.7139839448979259</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.7195759710487553</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.06851344035738423</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.07649487253750561</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>-0.02203588476464186</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>-0.02219748051462585</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.004448795327612087</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.003919028794549471</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.01242681336217623</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.01167425164207494</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>0.003290799253778401</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>0.003340127861515837</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.004099600965879056</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.003932644864720944</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.001828482353781786</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.001741071704416982</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1967,6 +2000,9 @@
       </c>
       <c r="AP12" t="n">
         <v>-0.0003977822685586398</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.0005038591675344243</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2147347405508076</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2348053265642997</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1661511402432634</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.1740123825438393</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.7195759710487553</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.7247161935401207</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.07649487253750561</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.08424018190584819</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>-0.02219748051462585</v>
       </c>
+      <c r="AR6" t="n">
+        <v>-0.02276590281695428</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.003919028794549471</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.003688045170791855</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.01167425164207494</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.01164764230734467</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>0.003340127861515837</v>
       </c>
+      <c r="AR9" t="n">
+        <v>0.003383391969790254</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.003932644864720944</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.003789164942351588</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.001741071704416982</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.001652400679916933</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2003,6 +2036,9 @@
       </c>
       <c r="AQ12" t="n">
         <v>-0.0005038591675344243</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.000633465938728985</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2348053265642997</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2524371742424388</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.1740123825438393</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1812983668848272</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.7247161935401207</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.7294947300703036</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.08424018190584819</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.09166421725799513</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>-0.02276590281695428</v>
       </c>
+      <c r="AS6" t="n">
+        <v>-0.02367067856264267</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.003688045170791855</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.003713997409831001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.01164764230734467</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.0122350786111593</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>0.003383391969790254</v>
       </c>
+      <c r="AS9" t="n">
+        <v>0.003421150713594326</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.003789164942351588</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.003668908396564038</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.001652400679916933</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.001564532309470281</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2039,6 +2072,9 @@
       </c>
       <c r="AR12" t="n">
         <v>-0.000633465938728985</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.000780959816436652</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS12"/>
+  <dimension ref="A1:AT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2524371742424388</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2677158468942044</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1812983668848272</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.187992151331558</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.7294947300703036</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.7339904572167586</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.09166421725799513</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.0987000339676937</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>-0.02367067856264267</v>
       </c>
+      <c r="AT6" t="n">
+        <v>-0.02484641054080174</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.003713997409831001</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.003957042101201548</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.0122350786111593</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.01333137871294813</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>0.003421150713594326</v>
       </c>
+      <c r="AT9" t="n">
+        <v>0.003453975494342196</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.003668908396564038</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.003571250036566759</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.001564532309470281</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.00147918060453202</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2075,6 +2108,9 @@
       </c>
       <c r="AS12" t="n">
         <v>-0.000780959816436652</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.0009412385384293087</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_11.xlsx
+++ b/predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2677158468942044</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2807565483985241</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.187992151331558</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1940897210186866</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.7339904572167586</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.7382714476391349</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.0987000339676937</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1052973772435336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>-0.02484641054080174</v>
       </c>
+      <c r="AU6" t="n">
+        <v>-0.02623314641706076</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.003957042101201548</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.004379735188291352</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.01333137871294813</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.01483890391147282</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>0.003453975494342196</v>
       </c>
+      <c r="AU9" t="n">
+        <v>0.003482435855866784</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.003571250036566759</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.003495256305049801</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.00147918060453202</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.001397734226773013</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2111,6 +2144,9 @@
       </c>
       <c r="AT12" t="n">
         <v>-0.0009412385384293087</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.001109751404777681</v>
       </c>
     </row>
   </sheetData>
